--- a/电竞1+X-中级-题库.xlsx
+++ b/电竞1+X-中级-题库.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\团子\作业\第三学期\1+x\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7D7AC0C-CD5D-4657-9BC8-82D201CE2884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBAE232-BDD5-469C-AA41-9FB2AE8EBCB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1104" yWindow="108" windowWidth="21288" windowHeight="11604"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="单选" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">单选!$1:$2</definedName>
     <definedName name="uni_baseinfo" localSheetId="1">判断!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -670,9 +670,6 @@
   </si>
   <si>
     <t>中级题库-判断题（共20题，每题1分）</t>
-  </si>
-  <si>
-    <t>Answer(1代表正确0代表错误)</t>
   </si>
   <si>
     <t>参加电竞职业赛事的年龄为年满16周岁</t>
@@ -982,11 +979,15 @@
     <t>举办一场电竞赛事最重要的是（）</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>Answer(1代表正确0代表错误)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1126,7 +1127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1171,27 +1172,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2340,10 +2320,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C10" sqref="C10:G10"/>
     </sheetView>
@@ -2351,47 +2331,47 @@
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="16.2" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.3984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="52.5" style="26" customWidth="1"/>
-    <col min="3" max="3" width="22.59765625" style="27" customWidth="1"/>
-    <col min="4" max="4" width="21.59765625" style="27" customWidth="1"/>
-    <col min="5" max="5" width="26.09765625" style="27" customWidth="1"/>
-    <col min="6" max="6" width="24.59765625" style="27" customWidth="1"/>
-    <col min="7" max="7" width="5.09765625" style="28" customWidth="1"/>
+    <col min="2" max="2" width="52.5" style="19" customWidth="1"/>
+    <col min="3" max="3" width="22.59765625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="21.59765625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="26.09765625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="24.59765625" style="20" customWidth="1"/>
+    <col min="7" max="7" width="5.09765625" style="21" customWidth="1"/>
     <col min="8" max="32" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="33" max="16384" width="8.59765625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="25" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2414,7 +2394,7 @@
       <c r="F3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="26" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2437,7 +2417,7 @@
       <c r="F4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="26" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2460,7 +2440,7 @@
       <c r="F5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="26" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2483,7 +2463,7 @@
       <c r="F6" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="26" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2491,7 +2471,7 @@
       <c r="A7" s="18">
         <v>5</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="27" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -2506,7 +2486,7 @@
       <c r="F7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="26" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2529,7 +2509,7 @@
       <c r="F8" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="26" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2537,7 +2517,7 @@
       <c r="A9" s="18">
         <v>7</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="28" t="s">
         <v>41</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -2552,7 +2532,7 @@
       <c r="F9" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="26" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2560,8 +2540,8 @@
       <c r="A10" s="18">
         <v>8</v>
       </c>
-      <c r="B10" s="34" t="s">
-        <v>271</v>
+      <c r="B10" s="27" t="s">
+        <v>270</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>46</v>
@@ -2575,7 +2555,7 @@
       <c r="F10" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="26" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2583,7 +2563,7 @@
       <c r="A11" s="18">
         <v>9</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="11" t="s">
@@ -2598,7 +2578,7 @@
       <c r="F11" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="G11" s="26" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2606,22 +2586,22 @@
       <c r="A12" s="18">
         <v>10</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="26" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2629,22 +2609,22 @@
       <c r="A13" s="18">
         <v>11</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="E13" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="34" t="s">
+      <c r="F13" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="26" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2652,22 +2632,22 @@
       <c r="A14" s="18">
         <v>12</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="E14" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="34" t="s">
+      <c r="F14" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="G14" s="33" t="s">
+      <c r="G14" s="26" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2675,22 +2655,22 @@
       <c r="A15" s="18">
         <v>13</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="34" t="s">
+      <c r="F15" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="26" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2698,22 +2678,22 @@
       <c r="A16" s="18">
         <v>14</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="34" t="s">
+      <c r="F16" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="G16" s="33" t="s">
+      <c r="G16" s="26" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2721,22 +2701,22 @@
       <c r="A17" s="18">
         <v>15</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="34" t="s">
+      <c r="E17" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="F17" s="34" t="s">
+      <c r="F17" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="G17" s="33" t="s">
+      <c r="G17" s="26" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2744,22 +2724,22 @@
       <c r="A18" s="18">
         <v>16</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C18" s="29">
         <v>77</v>
       </c>
-      <c r="D18" s="36">
+      <c r="D18" s="29">
         <v>78</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="29">
         <v>79</v>
       </c>
-      <c r="F18" s="36">
+      <c r="F18" s="29">
         <v>80</v>
       </c>
-      <c r="G18" s="33" t="s">
+      <c r="G18" s="26" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2767,22 +2747,22 @@
       <c r="A19" s="18">
         <v>17</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="D19" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="E19" s="36" t="s">
+      <c r="E19" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="F19" s="36" t="s">
+      <c r="F19" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="G19" s="33" t="s">
+      <c r="G19" s="26" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2790,22 +2770,22 @@
       <c r="A20" s="18">
         <v>18</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="E20" s="36" t="s">
+      <c r="E20" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="36" t="s">
+      <c r="F20" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="G20" s="33" t="s">
+      <c r="G20" s="26" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2813,22 +2793,22 @@
       <c r="A21" s="18">
         <v>19</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="E21" s="37" t="s">
+      <c r="E21" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="F21" s="37" t="s">
+      <c r="F21" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="G21" s="38" t="s">
+      <c r="G21" s="31" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2836,22 +2816,22 @@
       <c r="A22" s="18">
         <v>20</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="E22" s="37" t="s">
+      <c r="E22" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="F22" s="37" t="s">
+      <c r="F22" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="G22" s="38" t="s">
+      <c r="G22" s="31" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2865,7 +2845,7 @@
       <c r="C23" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="32" t="s">
         <v>109</v>
       </c>
       <c r="E23" s="16" t="s">
@@ -2874,7 +2854,7 @@
       <c r="F23" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="G23" s="33" t="s">
+      <c r="G23" s="26" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2885,7 +2865,7 @@
       <c r="B24" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="C24" s="39" t="s">
+      <c r="C24" s="32" t="s">
         <v>110</v>
       </c>
       <c r="D24" s="16" t="s">
@@ -2897,7 +2877,7 @@
       <c r="F24" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="G24" s="33" t="s">
+      <c r="G24" s="26" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2914,13 +2894,13 @@
       <c r="D25" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="E25" s="39" t="s">
+      <c r="E25" s="32" t="s">
         <v>118</v>
       </c>
       <c r="F25" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="G25" s="33" t="s">
+      <c r="G25" s="26" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2934,7 +2914,7 @@
       <c r="C26" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="D26" s="39" t="s">
+      <c r="D26" s="32" t="s">
         <v>117</v>
       </c>
       <c r="E26" s="16" t="s">
@@ -2943,7 +2923,7 @@
       <c r="F26" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="G26" s="33" t="s">
+      <c r="G26" s="26" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2951,7 +2931,7 @@
       <c r="A27" s="18">
         <v>25</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="27" t="s">
         <v>121</v>
       </c>
       <c r="C27" s="11" t="s">
@@ -2960,13 +2940,13 @@
       <c r="D27" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="E27" s="40" t="s">
+      <c r="E27" s="33" t="s">
         <v>124</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="G27" s="33" t="s">
+      <c r="G27" s="26" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2977,7 +2957,7 @@
       <c r="B28" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="40" t="s">
+      <c r="C28" s="33" t="s">
         <v>127</v>
       </c>
       <c r="D28" s="11" t="s">
@@ -2989,7 +2969,7 @@
       <c r="F28" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="G28" s="33" t="s">
+      <c r="G28" s="26" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2997,7 +2977,7 @@
       <c r="A29" s="18">
         <v>27</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="28" t="s">
         <v>131</v>
       </c>
       <c r="C29" s="11" t="s">
@@ -3006,13 +2986,13 @@
       <c r="D29" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="E29" s="40" t="s">
+      <c r="E29" s="33" t="s">
         <v>134</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="G29" s="33" t="s">
+      <c r="G29" s="26" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3020,7 +3000,7 @@
       <c r="A30" s="18">
         <v>28</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="27" t="s">
         <v>136</v>
       </c>
       <c r="C30" s="11" t="s">
@@ -3029,13 +3009,13 @@
       <c r="D30" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="E30" s="40" t="s">
+      <c r="E30" s="33" t="s">
         <v>139</v>
       </c>
       <c r="F30" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="G30" s="33" t="s">
+      <c r="G30" s="26" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3043,10 +3023,10 @@
       <c r="A31" s="18">
         <v>29</v>
       </c>
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="33" t="s">
         <v>142</v>
       </c>
       <c r="D31" s="11" t="s">
@@ -3058,7 +3038,7 @@
       <c r="F31" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="G31" s="33" t="s">
+      <c r="G31" s="26" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3066,22 +3046,22 @@
       <c r="A32" s="18">
         <v>30</v>
       </c>
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="C32" s="36">
+      <c r="C32" s="29">
         <v>3</v>
       </c>
-      <c r="D32" s="41">
+      <c r="D32" s="34">
         <v>4</v>
       </c>
-      <c r="E32" s="36">
+      <c r="E32" s="29">
         <v>5</v>
       </c>
-      <c r="F32" s="36">
+      <c r="F32" s="29">
         <v>6</v>
       </c>
-      <c r="G32" s="33" t="s">
+      <c r="G32" s="26" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3089,22 +3069,22 @@
       <c r="A33" s="18">
         <v>31</v>
       </c>
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="C33" s="42" t="s">
+      <c r="C33" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="D33" s="34" t="s">
+      <c r="D33" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="E33" s="34" t="s">
+      <c r="E33" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="F33" s="34" t="s">
+      <c r="F33" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="G33" s="33" t="s">
+      <c r="G33" s="26" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3112,22 +3092,22 @@
       <c r="A34" s="18">
         <v>32</v>
       </c>
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="D34" s="34" t="s">
+      <c r="D34" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="E34" s="34" t="s">
+      <c r="E34" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="F34" s="42" t="s">
+      <c r="F34" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="G34" s="33" t="s">
+      <c r="G34" s="26" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3135,22 +3115,22 @@
       <c r="A35" s="18">
         <v>33</v>
       </c>
-      <c r="B35" s="34" t="s">
+      <c r="B35" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="C35" s="42" t="s">
+      <c r="C35" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="D35" s="34" t="s">
+      <c r="D35" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="E35" s="34" t="s">
+      <c r="E35" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="F35" s="34" t="s">
+      <c r="F35" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="G35" s="33" t="s">
+      <c r="G35" s="26" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3158,22 +3138,22 @@
       <c r="A36" s="18">
         <v>34</v>
       </c>
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="C36" s="42" t="s">
+      <c r="C36" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="D36" s="34" t="s">
+      <c r="D36" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="E36" s="34" t="s">
+      <c r="E36" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="F36" s="34" t="s">
+      <c r="F36" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="G36" s="33" t="s">
+      <c r="G36" s="26" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3181,22 +3161,22 @@
       <c r="A37" s="18">
         <v>35</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="C37" s="42" t="s">
+      <c r="C37" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="D37" s="34" t="s">
+      <c r="D37" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="E37" s="34" t="s">
+      <c r="E37" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="F37" s="34" t="s">
+      <c r="F37" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="G37" s="33" t="s">
+      <c r="G37" s="26" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3204,22 +3184,22 @@
       <c r="A38" s="18">
         <v>36</v>
       </c>
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="C38" s="41" t="s">
+      <c r="C38" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="D38" s="36" t="s">
+      <c r="D38" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="E38" s="36" t="s">
+      <c r="E38" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="F38" s="36" t="s">
+      <c r="F38" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="G38" s="33" t="s">
+      <c r="G38" s="26" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3233,16 +3213,16 @@
       <c r="C39" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="D39" s="39" t="s">
+      <c r="D39" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="E39" s="43" t="s">
+      <c r="E39" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="F39" s="43" t="s">
+      <c r="F39" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="G39" s="33" t="s">
+      <c r="G39" s="26" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3250,22 +3230,22 @@
       <c r="A40" s="18">
         <v>38</v>
       </c>
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="C40" s="41" t="s">
+      <c r="C40" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="D40" s="36" t="s">
+      <c r="D40" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="E40" s="36" t="s">
+      <c r="E40" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="F40" s="36" t="s">
+      <c r="F40" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="G40" s="33" t="s">
+      <c r="G40" s="26" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3273,22 +3253,22 @@
       <c r="A41" s="18">
         <v>39</v>
       </c>
-      <c r="B41" s="34" t="s">
+      <c r="B41" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="C41" s="37" t="s">
+      <c r="C41" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="D41" s="44" t="s">
+      <c r="D41" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="E41" s="37" t="s">
+      <c r="E41" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="F41" s="37" t="s">
+      <c r="F41" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="G41" s="38" t="s">
+      <c r="G41" s="31" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3296,22 +3276,22 @@
       <c r="A42" s="18">
         <v>40</v>
       </c>
-      <c r="B42" s="34" t="s">
+      <c r="B42" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="C42" s="37" t="s">
+      <c r="C42" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="D42" s="37" t="s">
+      <c r="D42" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="E42" s="37" t="s">
+      <c r="E42" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="F42" s="44" t="s">
+      <c r="F42" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="G42" s="38" t="s">
+      <c r="G42" s="31" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3319,22 +3299,22 @@
       <c r="A43" s="18">
         <v>41</v>
       </c>
-      <c r="B43" s="45" t="s">
+      <c r="B43" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="C43" s="46">
+      <c r="C43" s="39">
         <v>16</v>
       </c>
-      <c r="D43" s="47">
+      <c r="D43" s="40">
         <v>17</v>
       </c>
-      <c r="E43" s="46">
+      <c r="E43" s="39">
         <v>18</v>
       </c>
-      <c r="F43" s="46">
+      <c r="F43" s="39">
         <v>19</v>
       </c>
-      <c r="G43" s="38" t="s">
+      <c r="G43" s="31" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3342,22 +3322,22 @@
       <c r="A44" s="18">
         <v>42</v>
       </c>
-      <c r="B44" s="36" t="s">
+      <c r="B44" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="C44" s="46" t="s">
+      <c r="C44" s="39" t="s">
         <v>191</v>
       </c>
-      <c r="D44" s="46" t="s">
+      <c r="D44" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="E44" s="47" t="s">
+      <c r="E44" s="40" t="s">
         <v>193</v>
       </c>
-      <c r="F44" s="46" t="s">
+      <c r="F44" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="G44" s="48" t="s">
+      <c r="G44" s="41" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3365,22 +3345,22 @@
       <c r="A45" s="18">
         <v>43</v>
       </c>
-      <c r="B45" s="36" t="s">
+      <c r="B45" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="C45" s="46">
+      <c r="C45" s="39">
         <v>1</v>
       </c>
-      <c r="D45" s="46">
+      <c r="D45" s="39">
         <v>2</v>
       </c>
-      <c r="E45" s="49">
+      <c r="E45" s="42">
         <v>3</v>
       </c>
-      <c r="F45" s="50">
+      <c r="F45" s="43">
         <v>4</v>
       </c>
-      <c r="G45" s="38" t="s">
+      <c r="G45" s="31" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3400,10 +3380,10 @@
       <c r="E46" s="9">
         <v>6</v>
       </c>
-      <c r="F46" s="51">
+      <c r="F46" s="44">
         <v>7</v>
       </c>
-      <c r="G46" s="38" t="s">
+      <c r="G46" s="31" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3417,7 +3397,7 @@
       <c r="C47" s="9">
         <v>4</v>
       </c>
-      <c r="D47" s="51">
+      <c r="D47" s="44">
         <v>5</v>
       </c>
       <c r="E47" s="9">
@@ -3426,7 +3406,7 @@
       <c r="F47" s="9">
         <v>7</v>
       </c>
-      <c r="G47" s="38" t="s">
+      <c r="G47" s="31" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3437,7 +3417,7 @@
       <c r="B48" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C48" s="51">
+      <c r="C48" s="44">
         <v>4</v>
       </c>
       <c r="D48" s="9">
@@ -3449,7 +3429,7 @@
       <c r="F48" s="9">
         <v>7</v>
       </c>
-      <c r="G48" s="38" t="s">
+      <c r="G48" s="31" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3472,7 +3452,7 @@
       <c r="F49" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="G49" s="48" t="s">
+      <c r="G49" s="41" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3480,22 +3460,22 @@
       <c r="A50" s="18">
         <v>48</v>
       </c>
-      <c r="B50" s="45" t="s">
+      <c r="B50" s="38" t="s">
         <v>204</v>
       </c>
-      <c r="C50" s="45" t="s">
+      <c r="C50" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="D50" s="45" t="s">
+      <c r="D50" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="E50" s="45" t="s">
+      <c r="E50" s="38" t="s">
         <v>207</v>
       </c>
-      <c r="F50" s="45" t="s">
+      <c r="F50" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="G50" s="48" t="s">
+      <c r="G50" s="41" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3503,7 +3483,7 @@
       <c r="A51" s="18">
         <v>49</v>
       </c>
-      <c r="B51" s="45" t="s">
+      <c r="B51" s="38" t="s">
         <v>209</v>
       </c>
       <c r="C51" s="17">
@@ -3518,7 +3498,7 @@
       <c r="F51" s="17">
         <v>12534</v>
       </c>
-      <c r="G51" s="48" t="s">
+      <c r="G51" s="41" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3531,7 +3511,7 @@
     <cfRule type="duplicateValues" dxfId="4" priority="1" stopIfTrue="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F20" r:id="rId1" tooltip="https://baike.baidu.com/item/%E9%9B%B7%E5%85%8B%E9%9B%85%E6%9C%AA%E5%85%8B/524172"/>
+    <hyperlink ref="F20" r:id="rId1" tooltip="https://baike.baidu.com/item/%E9%9B%B7%E5%85%8B%E9%9B%85%E6%9C%AA%E5%85%8B/524172" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39305555555555555" right="0.39305555555555555" top="0.39305555555555555" bottom="0.39305555555555555" header="0.39305555555555555" footer="0.39305555555555555"/>
@@ -3540,12 +3520,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C104"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3558,11 +3538,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="45" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
     </row>
     <row r="2" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
@@ -3572,7 +3552,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>211</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3580,7 +3560,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C3" s="15">
         <v>0</v>
@@ -3591,7 +3571,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C4" s="15">
         <v>1</v>
@@ -3602,7 +3582,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C5" s="15">
         <v>0</v>
@@ -3613,7 +3593,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C6" s="15">
         <v>0</v>
@@ -3624,7 +3604,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C7" s="15">
         <v>1</v>
@@ -3635,7 +3615,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C8" s="15">
         <v>1</v>
@@ -3646,7 +3626,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C9" s="15">
         <v>1</v>
@@ -3657,7 +3637,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C10" s="15">
         <v>1</v>
@@ -3668,7 +3648,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C11" s="15">
         <v>1</v>
@@ -3679,7 +3659,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C12" s="15">
         <v>1</v>
@@ -3690,7 +3670,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C13" s="15">
         <v>1</v>
@@ -3701,7 +3681,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C14" s="15">
         <v>0</v>
@@ -3712,7 +3692,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C15" s="15">
         <v>0</v>
@@ -3723,7 +3703,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C16" s="15">
         <v>0</v>
@@ -3734,7 +3714,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C17" s="15">
         <v>0</v>
@@ -3745,7 +3725,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C18" s="15">
         <v>1</v>
@@ -3756,7 +3736,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C19" s="15">
         <v>1</v>
@@ -3767,7 +3747,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C20" s="15">
         <v>1</v>
@@ -3778,7 +3758,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C21" s="15">
         <v>1</v>
@@ -3789,7 +3769,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C22" s="15">
         <v>0</v>
@@ -3800,7 +3780,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C23" s="15">
         <v>1</v>
@@ -3811,7 +3791,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C24" s="15">
         <v>1</v>
@@ -3822,7 +3802,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C25" s="15">
         <v>1</v>
@@ -3833,7 +3813,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C26" s="15">
         <v>0</v>
@@ -3844,7 +3824,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C27" s="15">
         <v>0</v>
@@ -3855,7 +3835,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C28" s="15">
         <v>0</v>
@@ -3866,7 +3846,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C29" s="15">
         <v>1</v>
@@ -3877,7 +3857,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C30" s="15">
         <v>1</v>
@@ -3888,7 +3868,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C31" s="15">
         <v>1</v>
@@ -3899,7 +3879,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C32" s="15">
         <v>1</v>
@@ -3910,7 +3890,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C33" s="15">
         <v>0</v>
@@ -3921,7 +3901,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C34" s="15">
         <v>1</v>
@@ -3932,7 +3912,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C35" s="15">
         <v>1</v>
@@ -3943,7 +3923,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C36" s="15">
         <v>1</v>
@@ -3954,7 +3934,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C37" s="15">
         <v>1</v>
@@ -3965,7 +3945,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C38" s="15">
         <v>1</v>
@@ -3976,7 +3956,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C39" s="15">
         <v>1</v>
@@ -3987,7 +3967,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C40" s="15">
         <v>0</v>
@@ -3998,7 +3978,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C41" s="15">
         <v>1</v>
@@ -4009,7 +3989,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C42" s="15">
         <v>1</v>
@@ -4020,7 +4000,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C43" s="18">
         <v>1</v>
@@ -4031,7 +4011,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C44" s="18">
         <v>1</v>
@@ -4042,7 +4022,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C45" s="18">
         <v>1</v>
@@ -4053,7 +4033,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C46" s="18">
         <v>0</v>
@@ -4064,7 +4044,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C47" s="18">
         <v>1</v>
@@ -4075,290 +4055,11 @@
         <v>46</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C48" s="18">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="19"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="19"/>
-    </row>
-    <row r="50" spans="1:3" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="19"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="19"/>
-    </row>
-    <row r="51" spans="1:3" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="19"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="19"/>
-    </row>
-    <row r="52" spans="1:3" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="19"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="19"/>
-    </row>
-    <row r="53" spans="1:3" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="19"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="19"/>
-    </row>
-    <row r="54" spans="1:3" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="19"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="19"/>
-    </row>
-    <row r="55" spans="1:3" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="19"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="19"/>
-    </row>
-    <row r="56" spans="1:3" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="19"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="19"/>
-    </row>
-    <row r="57" spans="1:3" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="19"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="19"/>
-    </row>
-    <row r="58" spans="1:3" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="19"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="19"/>
-    </row>
-    <row r="59" spans="1:3" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="19"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="19"/>
-    </row>
-    <row r="60" spans="1:3" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="19"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="19"/>
-    </row>
-    <row r="61" spans="1:3" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="19"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="19"/>
-    </row>
-    <row r="62" spans="1:3" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="19"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="19"/>
-    </row>
-    <row r="63" spans="1:3" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="19"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="19"/>
-    </row>
-    <row r="64" spans="1:3" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="19"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="19"/>
-    </row>
-    <row r="65" spans="1:3" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="19"/>
-      <c r="B65" s="21"/>
-      <c r="C65" s="19"/>
-    </row>
-    <row r="66" spans="1:3" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="19"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="19"/>
-    </row>
-    <row r="67" spans="1:3" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="19"/>
-      <c r="B67" s="21"/>
-      <c r="C67" s="19"/>
-    </row>
-    <row r="68" spans="1:3" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="19"/>
-      <c r="B68" s="21"/>
-      <c r="C68" s="19"/>
-    </row>
-    <row r="69" spans="1:3" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="19"/>
-      <c r="B69" s="23"/>
-      <c r="C69" s="19"/>
-    </row>
-    <row r="70" spans="1:3" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="19"/>
-      <c r="B70" s="23"/>
-      <c r="C70" s="19"/>
-    </row>
-    <row r="71" spans="1:3" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="19"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="19"/>
-    </row>
-    <row r="72" spans="1:3" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="19"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="19"/>
-    </row>
-    <row r="73" spans="1:3" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="19"/>
-      <c r="B73" s="23"/>
-      <c r="C73" s="19"/>
-    </row>
-    <row r="74" spans="1:3" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="19"/>
-      <c r="B74" s="23"/>
-      <c r="C74" s="19"/>
-    </row>
-    <row r="75" spans="1:3" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="19"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="19"/>
-    </row>
-    <row r="76" spans="1:3" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="19"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="19"/>
-    </row>
-    <row r="77" spans="1:3" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="19"/>
-      <c r="B77" s="23"/>
-      <c r="C77" s="19"/>
-    </row>
-    <row r="78" spans="1:3" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="19"/>
-      <c r="B78" s="23"/>
-      <c r="C78" s="19"/>
-    </row>
-    <row r="79" spans="1:3" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="19"/>
-      <c r="B79" s="23"/>
-      <c r="C79" s="19"/>
-    </row>
-    <row r="80" spans="1:3" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="19"/>
-      <c r="B80" s="21"/>
-      <c r="C80" s="19"/>
-    </row>
-    <row r="81" spans="1:3" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="19"/>
-      <c r="B81" s="21"/>
-      <c r="C81" s="19"/>
-    </row>
-    <row r="82" spans="1:3" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="19"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="19"/>
-    </row>
-    <row r="83" spans="1:3" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="19"/>
-      <c r="B83" s="21"/>
-      <c r="C83" s="19"/>
-    </row>
-    <row r="84" spans="1:3" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="19"/>
-      <c r="B84" s="22"/>
-      <c r="C84" s="19"/>
-    </row>
-    <row r="85" spans="1:3" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="19"/>
-      <c r="B85" s="22"/>
-      <c r="C85" s="19"/>
-    </row>
-    <row r="86" spans="1:3" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="19"/>
-      <c r="B86" s="21"/>
-      <c r="C86" s="19"/>
-    </row>
-    <row r="87" spans="1:3" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="19"/>
-      <c r="B87" s="22"/>
-      <c r="C87" s="19"/>
-    </row>
-    <row r="88" spans="1:3" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="19"/>
-      <c r="B88" s="22"/>
-      <c r="C88" s="19"/>
-    </row>
-    <row r="89" spans="1:3" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="19"/>
-      <c r="B89" s="21"/>
-      <c r="C89" s="19"/>
-    </row>
-    <row r="90" spans="1:3" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="19"/>
-      <c r="B90" s="24"/>
-      <c r="C90" s="19"/>
-    </row>
-    <row r="91" spans="1:3" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="19"/>
-      <c r="B91" s="24"/>
-      <c r="C91" s="19"/>
-    </row>
-    <row r="92" spans="1:3" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="19"/>
-      <c r="B92" s="24"/>
-      <c r="C92" s="19"/>
-    </row>
-    <row r="93" spans="1:3" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="19"/>
-      <c r="B93" s="21"/>
-      <c r="C93" s="19"/>
-    </row>
-    <row r="94" spans="1:3" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="19"/>
-      <c r="B94" s="21"/>
-      <c r="C94" s="19"/>
-    </row>
-    <row r="95" spans="1:3" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="19"/>
-      <c r="B95" s="21"/>
-      <c r="C95" s="19"/>
-    </row>
-    <row r="96" spans="1:3" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="19"/>
-      <c r="B96" s="21"/>
-      <c r="C96" s="19"/>
-    </row>
-    <row r="97" spans="1:3" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="19"/>
-      <c r="B97" s="4"/>
-      <c r="C97" s="19"/>
-    </row>
-    <row r="98" spans="1:3" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="19"/>
-      <c r="B98" s="4"/>
-      <c r="C98" s="19"/>
-    </row>
-    <row r="99" spans="1:3" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="19"/>
-      <c r="B99" s="20"/>
-      <c r="C99" s="19"/>
-    </row>
-    <row r="100" spans="1:3" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="19"/>
-      <c r="B100" s="20"/>
-      <c r="C100" s="19"/>
-    </row>
-    <row r="101" spans="1:3" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="19"/>
-      <c r="B101" s="4"/>
-      <c r="C101" s="19"/>
-    </row>
-    <row r="102" spans="1:3" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="19"/>
-      <c r="B102" s="4"/>
-      <c r="C102" s="19"/>
-    </row>
-    <row r="103" spans="1:3" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="19"/>
-      <c r="B103" s="4"/>
-      <c r="C103" s="25"/>
-    </row>
-    <row r="104" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="19"/>
-      <c r="B104" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4377,7 +4078,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4397,7 +4098,7 @@
     <row r="1" spans="1:3" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
       <c r="B1" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C1" s="5"/>
     </row>
@@ -4406,10 +4107,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="2" customFormat="1" ht="228" customHeight="1" x14ac:dyDescent="0.25">
@@ -4417,7 +4118,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C3" s="10"/>
     </row>
@@ -4426,7 +4127,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C4" s="10"/>
     </row>
@@ -4435,7 +4136,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C5" s="10"/>
     </row>
@@ -4444,7 +4145,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C6" s="10"/>
     </row>
@@ -4453,7 +4154,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C7" s="10"/>
     </row>
@@ -4462,7 +4163,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C8" s="10"/>
     </row>
@@ -4471,7 +4172,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C9" s="12"/>
     </row>
@@ -4480,7 +4181,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C10" s="13"/>
     </row>
@@ -4489,7 +4190,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C11" s="10"/>
     </row>
@@ -4498,7 +4199,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C12" s="13"/>
     </row>
